--- a/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2932283386279232</v>
+        <v>0.2932283386279233</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.4303267524256888</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2438375717784873</v>
+        <v>0.2437574975377682</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3888155052275442</v>
+        <v>0.3833357489045054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3289624620944532</v>
+        <v>0.3276406520964371</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3471662638445558</v>
+        <v>0.3505016829115274</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4795806685076133</v>
+        <v>0.4803972491987519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3984310733852608</v>
+        <v>0.3972471022907405</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.223970802098625</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3945148791411111</v>
+        <v>0.3945148791411112</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3104973974055278</v>
+        <v>0.3104973974055279</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1841857444347703</v>
+        <v>0.1846902387614084</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3550467660719234</v>
+        <v>0.3599632658613466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2815904044506756</v>
+        <v>0.2832026394772735</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.270717005436351</v>
+        <v>0.2687172298380605</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4312174058041929</v>
+        <v>0.4336823246750021</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3382419240940574</v>
+        <v>0.3384856040257244</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2898030657541161</v>
+        <v>0.2898030657541162</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.4225176929662377</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3601463012925049</v>
+        <v>0.3601463012925047</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2474336609777119</v>
+        <v>0.2440243197685063</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3810532935552134</v>
+        <v>0.3788983352572745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3281931396726933</v>
+        <v>0.3305060614779354</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3426537435915931</v>
+        <v>0.3440170947322015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4652682406645016</v>
+        <v>0.4651648369296961</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3933563374778549</v>
+        <v>0.3931077747667571</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.2938465538733918</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4311496059582184</v>
+        <v>0.4311496059582186</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3667129929770863</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2342175584738176</v>
+        <v>0.2410691905126111</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3881860276473073</v>
+        <v>0.3860472399489254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3301414106114728</v>
+        <v>0.3302617319384634</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3583061349083708</v>
+        <v>0.3593827865218113</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4758770308485198</v>
+        <v>0.4786488324363613</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4077286245790508</v>
+        <v>0.4052409783426072</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1709030768172377</v>
+        <v>0.16806433555717</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3254805549526261</v>
+        <v>0.3207488191792732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2595407578987887</v>
+        <v>0.2613406556341314</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2625141759337943</v>
+        <v>0.2608314670130509</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.412951272135723</v>
+        <v>0.4122698431047227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3259410622884617</v>
+        <v>0.3281179233028332</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.2820585080733515</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.4267811597668175</v>
+        <v>0.4267811597668172</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.3534779529732598</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2338495293329962</v>
+        <v>0.2357333079416081</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3797643345585259</v>
+        <v>0.3810180071238502</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3209852034828105</v>
+        <v>0.321109258775427</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3360999779550078</v>
+        <v>0.3307130173674611</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4722234889805665</v>
+        <v>0.4740384146096556</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3870206772073737</v>
+        <v>0.3887136010968765</v>
       </c>
     </row>
     <row r="22">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.2645870775770141</v>
+        <v>0.2645870775770142</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4032011553685071</v>
+        <v>0.403201155368507</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.3363272356622738</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2268226346252153</v>
+        <v>0.2256010195915147</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3704960691482994</v>
+        <v>0.370399993964275</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3131007900438348</v>
+        <v>0.3117908119051243</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3035238161691556</v>
+        <v>0.3025480098745315</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4367417651808663</v>
+        <v>0.4338255599139774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3669440122520499</v>
+        <v>0.361237519136946</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1086583934776028</v>
+        <v>0.1075372148878705</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2715972804398419</v>
+        <v>0.2693162696950099</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1960158491541507</v>
+        <v>0.1973150390374435</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1574596599160017</v>
+        <v>0.1524984279292241</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3264379495345057</v>
+        <v>0.3258389731956767</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2339350642904454</v>
+        <v>0.2335049035957983</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.2343875668078073</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.3852442282092558</v>
+        <v>0.3852442282092557</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.3119345333659548</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2205059173152155</v>
+        <v>0.2192657142338669</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3716091974299672</v>
+        <v>0.3712981889071949</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3017833033591725</v>
+        <v>0.3021886901114751</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2500003067216884</v>
+        <v>0.251420363277917</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.399332062798248</v>
+        <v>0.3984778390431452</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3224079061697446</v>
+        <v>0.323501419293903</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>77746</v>
+        <v>77721</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>122889</v>
+        <v>121157</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>208860</v>
+        <v>208021</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>110692</v>
+        <v>111756</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>151577</v>
+        <v>151835</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>252966</v>
+        <v>252215</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>97738</v>
+        <v>98005</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>194031</v>
+        <v>196718</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>303313</v>
+        <v>305049</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>143655</v>
+        <v>142594</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>235658</v>
+        <v>237005</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>364334</v>
+        <v>364597</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>78187</v>
+        <v>77110</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>135800</v>
+        <v>135032</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>220669</v>
+        <v>222224</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108276</v>
+        <v>108707</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>165813</v>
+        <v>165776</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>264483</v>
+        <v>264316</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>87397</v>
+        <v>89954</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>163799</v>
+        <v>162897</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>262498</v>
+        <v>262593</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>133700</v>
+        <v>134102</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>200802</v>
+        <v>201971</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>324188</v>
+        <v>322210</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35149</v>
+        <v>34565</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>74508</v>
+        <v>73425</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>112792</v>
+        <v>113574</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53990</v>
+        <v>53644</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>94532</v>
+        <v>94376</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>141648</v>
+        <v>142594</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>63305</v>
+        <v>63815</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>100163</v>
+        <v>100493</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>171553</v>
+        <v>171619</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>90985</v>
+        <v>89526</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>124549</v>
+        <v>125028</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>206846</v>
+        <v>207751</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>163241</v>
+        <v>162362</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>286044</v>
+        <v>285970</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>467066</v>
+        <v>465112</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>218442</v>
+        <v>217740</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>337190</v>
+        <v>334938</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>547387</v>
+        <v>538874</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>86717</v>
+        <v>85822</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>225787</v>
+        <v>223891</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>319389</v>
+        <v>321506</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>125664</v>
+        <v>121705</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>271378</v>
+        <v>270880</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>381174</v>
+        <v>380474</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>778995</v>
+        <v>774614</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1388686</v>
+        <v>1387524</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2193879</v>
+        <v>2196826</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>883192</v>
+        <v>888208</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1492286</v>
+        <v>1489093</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2343814</v>
+        <v>2351763</v>
       </c>
     </row>
     <row r="40">
